--- a/云顶.xlsx
+++ b/云顶.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="夜幽神射" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
   <si>
     <t>锤石</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -587,6 +587,10 @@
   </si>
   <si>
     <t>EZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,12 +623,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -719,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -732,6 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1098,9 +1109,9 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -1109,7 +1120,7 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1117,7 +1128,7 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
@@ -1126,10 +1137,10 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G11" t="s">
@@ -1143,7 +1154,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1158,7 +1169,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C14" t="s">
@@ -1173,7 +1184,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
@@ -1212,7 +1223,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1308,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1405,7 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -1411,7 +1422,7 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
@@ -1423,10 +1434,10 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1437,7 +1448,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -1452,7 +1463,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -1467,7 +1478,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
@@ -1505,7 +1516,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1613,7 +1624,7 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
@@ -1627,7 +1638,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
@@ -1642,7 +1653,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C14" t="s">
@@ -1683,7 +1694,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A21"/>
+      <selection activeCell="I13" sqref="I13:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1780,10 +1791,10 @@
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D11" t="s">
@@ -1800,16 +1811,16 @@
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
@@ -1826,7 +1837,7 @@
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="s">
@@ -1841,7 +1852,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C15" t="s">
@@ -1856,7 +1867,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="s">
@@ -1865,7 +1876,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C17" t="s">
@@ -1874,7 +1885,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
@@ -1883,7 +1894,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
@@ -1915,7 +1926,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1988,7 +1999,7 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C10" t="s">
@@ -2005,19 +2016,19 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G11" t="s">
@@ -2031,7 +2042,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C13" t="s">
@@ -2046,7 +2057,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
@@ -2087,7 +2098,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2177,7 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
@@ -2175,7 +2186,7 @@
       <c r="D10" t="s">
         <v>92</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2183,22 +2194,22 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>95</v>
       </c>
       <c r="E11" t="s">
         <v>96</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2209,7 +2220,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C13" t="s">
@@ -2224,7 +2235,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C14" t="s">
@@ -2239,7 +2250,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C15" t="s">
@@ -2273,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2353,7 +2364,7 @@
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C10" t="s">
@@ -2370,22 +2381,22 @@
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2396,7 +2407,7 @@
       <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C13" t="s">
@@ -2411,7 +2422,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C14" t="s">
@@ -2423,7 +2434,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C15" t="s">
@@ -2455,7 +2466,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
